--- a/biology/Zoologie/Bassiana_trilineata/Bassiana_trilineata.xlsx
+++ b/biology/Zoologie/Bassiana_trilineata/Bassiana_trilineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bassiana trilineata est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bassiana trilineata est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce saurien présent un gabarit relativement trapu, avec des écailles lisses. Il a cinq doigts au bout de chaque pattes. La longueur totale, de la tête à la queue, est d'environ 190 mm. Les individus de cette espèce arbore une tache rouge à la gorge dont la couleur devient plus intense durant la saison de reproduction[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce saurien présent un gabarit relativement trapu, avec des écailles lisses. Il a cinq doigts au bout de chaque pattes. La longueur totale, de la tête à la queue, est d'environ 190 mm. Les individus de cette espèce arbore une tache rouge à la gorge dont la couleur devient plus intense durant la saison de reproduction.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bassiana trilineata vit principalement dans les zones humides à l’intérieur des terres, dans un environnement composé de prairies, de buissons et de forêts[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bassiana trilineata vit principalement dans les zones humides à l’intérieur des terres, dans un environnement composé de prairies, de buissons et de forêts.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans les États d'Australie-Occidentale et d'Australie-Méridionale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans les États d'Australie-Occidentale et d'Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1839 "1838" : Catalogue of the slender-tongued saurians, with descriptions of many new genera and species. Annals and Magazine of Natural History, sér. 1, vol. 2, p. 287-293 (texte intégral).</t>
         </is>
